--- a/data/Registry.xlsx
+++ b/data/Registry.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -308,7 +308,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -320,7 +320,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="8" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,22 +438,27 @@
       <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -473,6 +479,18 @@
       <c r="F3" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -492,6 +510,24 @@
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
